--- a/bin/Assets/Resources/IngameData/Script.xlsx
+++ b/bin/Assets/Resources/IngameData/Script.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46412CFF-B394-46A5-9957-462866F47712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F053E-6289-4C87-AC95-45837B370B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스크립트 배열 (  , 로 구별)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +88,11 @@
   </si>
   <si>
     <t>scripts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트 배열 
+(  , 로 구별. 줄바꿈 등도 다 넣기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,43 +205,43 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,92 +527,92 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
+      <c r="A1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/bin/Assets/Resources/IngameData/Script.xlsx
+++ b/bin/Assets/Resources/IngameData/Script.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F053E-6289-4C87-AC95-45837B370B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8AF1FA-4335-4C06-9E17-6B5BEABE32F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,54 @@
   <si>
     <t>스크립트 배열 
 (  , 로 구별. 줄바꿈 등도 다 넣기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가에 막혀 있어 문이 열리지 않아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문은 굳게 닫혀있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책들이 가지런히 꽂혀있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구원 아저씨들이 가져다 놓은 책들이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 화장실에 볼일은 없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장실이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문이 열릴듯 하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소에 이쪽 문은 닫혀있었는데 지금은 열려있네</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,6 +290,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -524,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,6 +666,783 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="14"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="14"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="14"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="14"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="14"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="14"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="14"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="14"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="14"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="14"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="14"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="14"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="14"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="14"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="14"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="14"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="14"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="14"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="14"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="14"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="14"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="14"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="14"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="14"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="14"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="14"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="14"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="14"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="14"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="14"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="14"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="14"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="14"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="14"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="14"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="14"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="14"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="14"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="14"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="14"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="14"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="14"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="14"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="14"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="14"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="14"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="14"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="14"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="14"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="14"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="14"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="14"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="14"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="14"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="14"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="14"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="14"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="14"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="14"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="14"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="14"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="14"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="14"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="14"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="14"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="14"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/bin/Assets/Resources/IngameData/Script.xlsx
+++ b/bin/Assets/Resources/IngameData/Script.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F053E-6289-4C87-AC95-45837B370B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C56B6A-4520-4DC0-A30E-F99CE76A98EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,46 @@
   <si>
     <t>스크립트 배열 
 (  , 로 구별. 줄바꿈 등도 다 넣기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화재경보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울리면 큰 소리가 날 것 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무언가가 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 서랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서랍이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리실 컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무것도 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복잡해보이는 컴퓨터다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,6 +282,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -524,29 +567,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -560,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -574,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -588,7 +631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -602,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -614,6 +657,67 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/Script.xlsx
+++ b/bin/Assets/Resources/IngameData/Script.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8AF1FA-4335-4C06-9E17-6B5BEABE32F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E1DFA-9EEC-49CD-90FD-0D070DA685F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,22 @@
   </si>
   <si>
     <t>평소에 이쪽 문은 닫혀있었는데 지금은 열려있네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리실 컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커다란 컴퓨터다, 작동하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화재경보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 소리가 날 것 같다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,26 +594,26 @@
   <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -611,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -625,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -639,7 +655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -653,7 +669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -667,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -681,7 +697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -695,7 +711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -709,7 +725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -723,725 +739,739 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="14">
+        <v>8</v>
+      </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165" s="14"/>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/Script.xlsx
+++ b/bin/Assets/Resources/IngameData/Script.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E1DFA-9EEC-49CD-90FD-0D070DA685F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8586D9F6-DD6B-4102-829E-4C23708B2343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,15 +148,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>커다란 컴퓨터다, 작동하시겠습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화재경보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>큰 소리가 날 것 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커다랗고 복잡한 컴퓨터다, 작동하시겠습니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +594,7 @@
   <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -739,7 +739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -750,7 +750,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -758,13 +758,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">

--- a/bin/Assets/Resources/IngameData/Script.xlsx
+++ b/bin/Assets/Resources/IngameData/Script.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8AF1FA-4335-4C06-9E17-6B5BEABE32F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDB9A24-D05B-4962-9431-FCCE09D864B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>침대다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,11 +51,6 @@
   </si>
   <si>
     <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdf,asdfasdfasdfasdf,가나다라마바사아자차카타파하
-공백도 하나 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>책장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>책들이 가지런히 꽂혀있다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지금 화장실에 볼일은 없어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,19 +103,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문이 열릴듯 하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>평소에 이쪽 문은 닫혀있었는데 지금은 열려있네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀의방_침대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀의방_문1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀의방_책장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀의방_변기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀의방_문2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저…저게 뭐지…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드키가 있어야 나갈 수 있을 것 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복도_입장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실1_입장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실1_문1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실1_시체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실1-문2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실2_입장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실2_문1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실이 어두워, 아무도 안 계신가…?
+그런데 문이 왜 열려있었지…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구원 아저씨…? 죽은거야….? 
+빨리 밖으로 나가봐야겠어….!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어두워… 살아남을 수 있을까…? 
+나도 저 아저씨처럼 되는건가….? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두워서 앞이 하나도 보이지 않아. 
+사…살려줘……
+방금 무슨 소리가 들렸어! 빨리 가봐야해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움을 요청하는 사람을 두고 갈 수는 없어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 나갈 순 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실2_조우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저…저게 뭐야….?
+도망가야해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈_입장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 어디지…? 난 혹시 죽은건가…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈_인형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,13 +651,13 @@
   <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="37.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="3" customWidth="1"/>
@@ -594,77 +667,77 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -672,13 +745,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -686,27 +759,27 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>4</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -714,231 +787,338 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A13" s="14">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A16" s="14">
+        <v>11</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="14">
+        <v>13</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="14">
+        <v>14</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>15</v>
+      </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>16</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>17</v>
+      </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>18</v>
+      </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>19</v>
+      </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>20</v>
+      </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14">
+        <v>21</v>
+      </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14">
+        <v>22</v>
+      </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14">
+        <v>23</v>
+      </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14">
+        <v>24</v>
+      </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>25</v>
+      </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14">
+        <v>26</v>
+      </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14">
+        <v>27</v>
+      </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14">
+        <v>28</v>
+      </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14">
+        <v>29</v>
+      </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14">
+        <v>30</v>
+      </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="14">
+        <v>31</v>
+      </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="14">
+        <v>32</v>
+      </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14">
+        <v>33</v>
+      </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14">
+        <v>34</v>
+      </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14">
+        <v>35</v>
+      </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14">
+        <v>36</v>
+      </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14">
+        <v>37</v>
+      </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14">
+        <v>38</v>
+      </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14">
+        <v>39</v>
+      </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14">
+        <v>40</v>
+      </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14">
+        <v>41</v>
+      </c>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>

--- a/bin/Assets/Resources/IngameData/Script.xlsx
+++ b/bin/Assets/Resources/IngameData/Script.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDB9A24-D05B-4962-9431-FCCE09D864B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B7368B-6CF8-40A2-9524-B601EAD8F9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>침대다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,14 @@
   </si>
   <si>
     <t>꿈_인형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화재경보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 소리가 날 것 같다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,27 +658,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -684,7 +692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -698,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -712,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -726,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -740,7 +748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -754,7 +762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -768,7 +776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -782,7 +790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -794,7 +802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -808,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>7</v>
       </c>
@@ -822,7 +830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
         <v>8</v>
       </c>
@@ -836,7 +844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -848,7 +856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -860,7 +868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>11</v>
       </c>
@@ -874,7 +882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>12</v>
       </c>
@@ -886,7 +894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
         <v>13</v>
       </c>
@@ -898,7 +906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
         <v>14</v>
       </c>
@@ -908,15 +916,21 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
         <v>15</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
         <v>16</v>
       </c>
@@ -924,14 +938,14 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
         <v>17</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
         <v>18</v>
       </c>
@@ -939,7 +953,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
         <v>19</v>
       </c>
@@ -947,7 +961,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="14">
         <v>20</v>
       </c>
@@ -955,7 +969,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
         <v>21</v>
       </c>
@@ -963,7 +977,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
         <v>22</v>
       </c>
@@ -971,7 +985,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="14">
         <v>23</v>
       </c>
@@ -979,7 +993,7 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
         <v>24</v>
       </c>
@@ -987,7 +1001,7 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="14">
         <v>25</v>
       </c>
@@ -995,7 +1009,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
         <v>26</v>
       </c>
@@ -1003,7 +1017,7 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="14">
         <v>27</v>
       </c>
@@ -1011,7 +1025,7 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="14">
         <v>28</v>
       </c>
@@ -1019,7 +1033,7 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="14">
         <v>29</v>
       </c>
@@ -1027,7 +1041,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="14">
         <v>30</v>
       </c>
@@ -1035,7 +1049,7 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="14">
         <v>31</v>
       </c>
@@ -1043,7 +1057,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="14">
         <v>32</v>
       </c>
@@ -1051,7 +1065,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="14">
         <v>33</v>
       </c>
@@ -1059,7 +1073,7 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="14">
         <v>34</v>
       </c>
@@ -1067,7 +1081,7 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="14">
         <v>35</v>
       </c>
@@ -1075,7 +1089,7 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="14">
         <v>36</v>
       </c>
@@ -1083,7 +1097,7 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="14">
         <v>37</v>
       </c>
@@ -1091,7 +1105,7 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
         <v>38</v>
       </c>
@@ -1099,7 +1113,7 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
         <v>39</v>
       </c>
@@ -1107,7 +1121,7 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
         <v>40</v>
       </c>
@@ -1115,7 +1129,7 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
         <v>41</v>
       </c>
@@ -1123,505 +1137,505 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165" s="14"/>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/Script.xlsx
+++ b/bin/Assets/Resources/IngameData/Script.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B7368B-6CF8-40A2-9524-B601EAD8F9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8777C140-02B6-43C0-B56B-66EB3F956F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>침대다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,14 @@
   </si>
   <si>
     <t>큰 소리가 날 것 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해하기 어려운 책들이 많다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,27 +666,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.3984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -692,7 +700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -706,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -720,7 +728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -734,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -748,7 +756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -762,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -776,7 +784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -790,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -802,7 +810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -816,7 +824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>7</v>
       </c>
@@ -830,7 +838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>8</v>
       </c>
@@ -844,7 +852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -856,7 +864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -868,7 +876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>11</v>
       </c>
@@ -882,7 +890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>12</v>
       </c>
@@ -894,7 +902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>13</v>
       </c>
@@ -906,7 +914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>14</v>
       </c>
@@ -916,7 +924,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>15</v>
       </c>
@@ -930,22 +938,28 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>16</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>17</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>18</v>
       </c>
@@ -953,7 +967,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>19</v>
       </c>
@@ -961,7 +975,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>20</v>
       </c>
@@ -969,7 +983,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>21</v>
       </c>
@@ -977,7 +991,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>22</v>
       </c>
@@ -985,7 +999,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>23</v>
       </c>
@@ -993,7 +1007,7 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>24</v>
       </c>
@@ -1001,7 +1015,7 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>25</v>
       </c>
@@ -1009,7 +1023,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>26</v>
       </c>
@@ -1017,7 +1031,7 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>27</v>
       </c>
@@ -1025,7 +1039,7 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>28</v>
       </c>
@@ -1033,7 +1047,7 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>29</v>
       </c>
@@ -1041,7 +1055,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>30</v>
       </c>
@@ -1049,7 +1063,7 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>31</v>
       </c>
@@ -1057,7 +1071,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>32</v>
       </c>
@@ -1065,7 +1079,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>33</v>
       </c>
@@ -1073,7 +1087,7 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>34</v>
       </c>
@@ -1081,7 +1095,7 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>35</v>
       </c>
@@ -1089,7 +1103,7 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>36</v>
       </c>
@@ -1097,7 +1111,7 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>37</v>
       </c>
@@ -1105,7 +1119,7 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>38</v>
       </c>
@@ -1113,7 +1127,7 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>39</v>
       </c>
@@ -1121,7 +1135,7 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>40</v>
       </c>
@@ -1129,7 +1143,7 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>41</v>
       </c>
@@ -1137,505 +1151,505 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="14"/>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/Script.xlsx
+++ b/bin/Assets/Resources/IngameData/Script.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8777C140-02B6-43C0-B56B-66EB3F956F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CD73F5-D05F-4A01-879B-A23BC6DC5B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이해하기 어려운 책들이 많다.</t>
+    <t>이해하기 어려운 책들이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,27 +666,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -714,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -728,7 +728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -770,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -784,7 +784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -798,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -810,7 +810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -824,7 +824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>7</v>
       </c>
@@ -838,7 +838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
         <v>8</v>
       </c>
@@ -852,7 +852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -864,7 +864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -876,7 +876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>11</v>
       </c>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>12</v>
       </c>
@@ -902,7 +902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
         <v>13</v>
       </c>
@@ -914,7 +914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
         <v>14</v>
       </c>
@@ -924,7 +924,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
         <v>15</v>
       </c>
@@ -938,7 +938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
         <v>16</v>
       </c>
@@ -952,14 +952,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
         <v>17</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
         <v>18</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
         <v>19</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="14">
         <v>20</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
         <v>21</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
         <v>22</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="14">
         <v>23</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
         <v>24</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="14">
         <v>25</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
         <v>26</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="14">
         <v>27</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="14">
         <v>28</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="14">
         <v>29</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="14">
         <v>30</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="14">
         <v>31</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="14">
         <v>32</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="14">
         <v>33</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="14">
         <v>34</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="14">
         <v>35</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="14">
         <v>36</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="14">
         <v>37</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
         <v>38</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
         <v>39</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
         <v>40</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
         <v>41</v>
       </c>
@@ -1151,505 +1151,505 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165" s="14"/>
     </row>
   </sheetData>
